--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>194.3861306345827</v>
+        <v>226.1189436488677</v>
       </c>
       <c r="R2">
-        <v>194.3861306345827</v>
+        <v>904.4757745954709</v>
       </c>
       <c r="S2">
-        <v>0.03036749320898016</v>
+        <v>0.02554494304577572</v>
       </c>
       <c r="T2">
-        <v>0.03036749320898016</v>
+        <v>0.01409789646926847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>49.72882343122762</v>
+        <v>54.06371808428849</v>
       </c>
       <c r="R3">
-        <v>49.72882343122762</v>
+        <v>324.382308505731</v>
       </c>
       <c r="S3">
-        <v>0.007768762631924693</v>
+        <v>0.00610764660855048</v>
       </c>
       <c r="T3">
-        <v>0.007768762631924693</v>
+        <v>0.005056086995609621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>9.695310612452884</v>
+        <v>10.195307602362</v>
       </c>
       <c r="R4">
-        <v>9.695310612452884</v>
+        <v>61.17184561417199</v>
       </c>
       <c r="S4">
-        <v>0.001514625957219585</v>
+        <v>0.001151776794256245</v>
       </c>
       <c r="T4">
-        <v>0.001514625957219585</v>
+        <v>0.0009534742339432797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>13.77753343912206</v>
+        <v>14.54319381261</v>
       </c>
       <c r="R5">
-        <v>13.77753343912206</v>
+        <v>87.25916287566001</v>
       </c>
       <c r="S5">
-        <v>0.002152361136996682</v>
+        <v>0.001642962998375305</v>
       </c>
       <c r="T5">
-        <v>0.002152361136996682</v>
+        <v>0.00136009241902171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>145.7967005244237</v>
+        <v>163.016376559703</v>
       </c>
       <c r="R6">
-        <v>145.7967005244237</v>
+        <v>978.098259358218</v>
       </c>
       <c r="S6">
-        <v>0.02277672948483223</v>
+        <v>0.01841616623334687</v>
       </c>
       <c r="T6">
-        <v>0.02277672948483223</v>
+        <v>0.01524543651085744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>23.80689260331236</v>
+        <v>24.9198127019025</v>
       </c>
       <c r="R7">
-        <v>23.80689260331236</v>
+        <v>99.67925080761</v>
       </c>
       <c r="S7">
-        <v>0.003719173004256452</v>
+        <v>0.002815222758027798</v>
       </c>
       <c r="T7">
-        <v>0.003719173004256452</v>
+        <v>0.001553682030509265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>1627.439142872325</v>
+        <v>1945.018641264487</v>
       </c>
       <c r="R8">
-        <v>1627.439142872325</v>
+        <v>11670.11184758692</v>
       </c>
       <c r="S8">
-        <v>0.2542426610266165</v>
+        <v>0.2197312158473025</v>
       </c>
       <c r="T8">
-        <v>0.2542426610266165</v>
+        <v>0.1818998730901859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>416.3395480776554</v>
+        <v>465.0425912713466</v>
       </c>
       <c r="R9">
-        <v>416.3395480776554</v>
+        <v>4185.383321442119</v>
       </c>
       <c r="S9">
-        <v>0.06504161772037841</v>
+        <v>0.0525364496940767</v>
       </c>
       <c r="T9">
-        <v>0.06504161772037841</v>
+        <v>0.06523679506649492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>81.1710585601016</v>
+        <v>87.69748796816</v>
       </c>
       <c r="R10">
-        <v>81.1710585601016</v>
+        <v>789.2773917134399</v>
       </c>
       <c r="S10">
-        <v>0.01268074816625359</v>
+        <v>0.009907296130319005</v>
       </c>
       <c r="T10">
-        <v>0.01268074816625359</v>
+        <v>0.01230232059989332</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>115.3482356887376</v>
+        <v>125.0969185181334</v>
       </c>
       <c r="R11">
-        <v>115.3482356887376</v>
+        <v>1125.8722666632</v>
       </c>
       <c r="S11">
-        <v>0.01801999326037515</v>
+        <v>0.01413235710012023</v>
       </c>
       <c r="T11">
-        <v>0.01801999326037515</v>
+        <v>0.017548762607973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>1220.638821095336</v>
+        <v>1402.226129856596</v>
       </c>
       <c r="R12">
-        <v>1220.638821095336</v>
+        <v>12620.03516870936</v>
       </c>
       <c r="S12">
-        <v>0.1906912853773094</v>
+        <v>0.1584112593419353</v>
       </c>
       <c r="T12">
-        <v>0.1906912853773094</v>
+        <v>0.1967061520542824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>199.3160148118884</v>
+        <v>214.3540008628667</v>
       </c>
       <c r="R13">
-        <v>199.3160148118884</v>
+        <v>1286.1240051772</v>
       </c>
       <c r="S13">
-        <v>0.03113765218990467</v>
+        <v>0.02421584257964274</v>
       </c>
       <c r="T13">
-        <v>0.03113765218990467</v>
+        <v>0.02004657679166531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>613.5665562961914</v>
+        <v>1353.488377543618</v>
       </c>
       <c r="R14">
-        <v>613.5665562961914</v>
+        <v>8120.93026526171</v>
       </c>
       <c r="S14">
-        <v>0.09585292001417658</v>
+        <v>0.1529052938225339</v>
       </c>
       <c r="T14">
-        <v>0.09585292001417658</v>
+        <v>0.1265794367627077</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>156.9656376293514</v>
+        <v>323.6111618649233</v>
       </c>
       <c r="R15">
-        <v>156.9656376293514</v>
+        <v>2912.50045678431</v>
       </c>
       <c r="S15">
-        <v>0.02452156910162061</v>
+        <v>0.03655876223999053</v>
       </c>
       <c r="T15">
-        <v>0.02452156910162061</v>
+        <v>0.04539660548101089</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>30.60258633311318</v>
+        <v>61.02642318508001</v>
       </c>
       <c r="R16">
-        <v>30.60258633311318</v>
+        <v>549.23780866572</v>
       </c>
       <c r="S16">
-        <v>0.004780813474779409</v>
+        <v>0.006894232209801328</v>
       </c>
       <c r="T16">
-        <v>0.004780813474779409</v>
+        <v>0.008560868053144181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>43.48784411162004</v>
+        <v>87.05172366406669</v>
       </c>
       <c r="R17">
-        <v>43.48784411162004</v>
+        <v>783.4655129766002</v>
       </c>
       <c r="S17">
-        <v>0.006793781050230248</v>
+        <v>0.009834343320161379</v>
       </c>
       <c r="T17">
-        <v>0.006793781050230248</v>
+        <v>0.0122117319218709</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>460.1973359317585</v>
+        <v>975.7730487431313</v>
       </c>
       <c r="R18">
-        <v>460.1973359317585</v>
+        <v>8781.957438688181</v>
       </c>
       <c r="S18">
-        <v>0.07189319231817753</v>
+        <v>0.1102343154161071</v>
       </c>
       <c r="T18">
-        <v>0.07189319231817753</v>
+        <v>0.136882744950821</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>75.14483190257465</v>
+        <v>149.1634284076834</v>
       </c>
       <c r="R19">
-        <v>75.14483190257465</v>
+        <v>894.9805704461002</v>
       </c>
       <c r="S19">
-        <v>0.01173931578884679</v>
+        <v>0.01685118116023003</v>
       </c>
       <c r="T19">
-        <v>0.01173931578884679</v>
+        <v>0.01394989647986879</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>193.6553911956235</v>
+        <v>270.539768616767</v>
       </c>
       <c r="R20">
-        <v>193.6553911956235</v>
+        <v>1623.238611700602</v>
       </c>
       <c r="S20">
-        <v>0.03025333524473813</v>
+        <v>0.03056321982321121</v>
       </c>
       <c r="T20">
-        <v>0.03025333524473813</v>
+        <v>0.02530111975957477</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>49.54188204597749</v>
+        <v>64.68447775785799</v>
       </c>
       <c r="R21">
-        <v>49.54188204597749</v>
+        <v>582.160299820722</v>
       </c>
       <c r="S21">
-        <v>0.00773955817567811</v>
+        <v>0.007307487261377459</v>
       </c>
       <c r="T21">
-        <v>0.00773955817567811</v>
+        <v>0.009074024828427866</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>9.658863846346932</v>
+        <v>12.198164891496</v>
       </c>
       <c r="R22">
-        <v>9.658863846346932</v>
+        <v>109.783484023464</v>
       </c>
       <c r="S22">
-        <v>0.001508932151192383</v>
+        <v>0.001378042115304242</v>
       </c>
       <c r="T22">
-        <v>0.001508932151192383</v>
+        <v>0.001711174843229609</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>13.72574071593404</v>
+        <v>17.40018870388</v>
       </c>
       <c r="R23">
-        <v>13.72574071593404</v>
+        <v>156.60169833492</v>
       </c>
       <c r="S23">
-        <v>0.002144269946722191</v>
+        <v>0.001965721324598937</v>
       </c>
       <c r="T23">
-        <v>0.002144269946722191</v>
+        <v>0.002440921683087354</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>145.2486192451908</v>
+        <v>195.0407696211907</v>
       </c>
       <c r="R24">
-        <v>145.2486192451908</v>
+        <v>1755.366926590716</v>
       </c>
       <c r="S24">
-        <v>0.02269110684050705</v>
+        <v>0.02203400242004681</v>
       </c>
       <c r="T24">
-        <v>0.02269110684050705</v>
+        <v>0.02736057934522575</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>23.71739735338112</v>
+        <v>29.81528329097</v>
       </c>
       <c r="R25">
-        <v>23.71739735338112</v>
+        <v>178.89169974582</v>
       </c>
       <c r="S25">
-        <v>0.003705191829850384</v>
+        <v>0.003368270261974182</v>
       </c>
       <c r="T25">
-        <v>0.003705191829850384</v>
+        <v>0.002788351808931533</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N26">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O26">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P26">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q26">
-        <v>110.217811547697</v>
+        <v>126.7404142014985</v>
       </c>
       <c r="R26">
-        <v>110.217811547697</v>
+        <v>760.4424852089909</v>
       </c>
       <c r="S26">
-        <v>0.01721850541886285</v>
+        <v>0.01431802488606538</v>
       </c>
       <c r="T26">
-        <v>0.01721850541886285</v>
+        <v>0.0118528762498967</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N27">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P27">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q27">
-        <v>28.1964668545989</v>
+        <v>30.30289241893899</v>
       </c>
       <c r="R27">
-        <v>28.1964668545989</v>
+        <v>272.726031770451</v>
       </c>
       <c r="S27">
-        <v>0.004404923401319724</v>
+        <v>0.003423356081859803</v>
       </c>
       <c r="T27">
-        <v>0.004404923401319724</v>
+        <v>0.004250930172335313</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N28">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O28">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P28">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q28">
-        <v>5.497284783082192</v>
+        <v>5.714503559868</v>
       </c>
       <c r="R28">
-        <v>5.497284783082192</v>
+        <v>51.430532038812</v>
       </c>
       <c r="S28">
-        <v>0.0008587997393286184</v>
+        <v>0.0006455746945218033</v>
       </c>
       <c r="T28">
-        <v>0.0008587997393286184</v>
+        <v>0.0008016381824785219</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N29">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O29">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P29">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q29">
-        <v>7.811923511353083</v>
+        <v>8.15150813054</v>
       </c>
       <c r="R29">
-        <v>7.811923511353083</v>
+        <v>73.36357317486001</v>
       </c>
       <c r="S29">
-        <v>0.001220398458499294</v>
+        <v>0.0009208861830487536</v>
       </c>
       <c r="T29">
-        <v>0.001220398458499294</v>
+        <v>0.001143504434596226</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N30">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O30">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P30">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q30">
-        <v>82.66738583775317</v>
+        <v>91.37121708337534</v>
       </c>
       <c r="R30">
-        <v>82.66738583775317</v>
+        <v>822.340953750378</v>
       </c>
       <c r="S30">
-        <v>0.01291450819992552</v>
+        <v>0.01032232195477851</v>
       </c>
       <c r="T30">
-        <v>0.01291450819992552</v>
+        <v>0.01281767622089983</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N31">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O31">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P31">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q31">
-        <v>13.49861532776107</v>
+        <v>13.967637265135</v>
       </c>
       <c r="R31">
-        <v>13.49861532776107</v>
+        <v>83.80582359080999</v>
       </c>
       <c r="S31">
-        <v>0.002108787843856037</v>
+        <v>0.001577941647277436</v>
       </c>
       <c r="T31">
-        <v>0.002108787843856037</v>
+        <v>0.001306265858843416</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N32">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O32">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P32">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q32">
-        <v>106.8339841724522</v>
+        <v>139.2315746833895</v>
       </c>
       <c r="R32">
-        <v>106.8339841724522</v>
+        <v>556.926298733558</v>
       </c>
       <c r="S32">
-        <v>0.01668987534375076</v>
+        <v>0.0157291670837799</v>
       </c>
       <c r="T32">
-        <v>0.01668987534375076</v>
+        <v>0.008680707124599531</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N33">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P33">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q33">
-        <v>27.33079936321993</v>
+        <v>33.289455897173</v>
       </c>
       <c r="R33">
-        <v>27.33079936321993</v>
+        <v>199.736735383038</v>
       </c>
       <c r="S33">
-        <v>0.004269686635302176</v>
+        <v>0.003760751935223385</v>
       </c>
       <c r="T33">
-        <v>0.004269686635302176</v>
+        <v>0.003113259520741886</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N34">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O34">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P34">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q34">
-        <v>5.328511129556507</v>
+        <v>6.277708134276001</v>
       </c>
       <c r="R34">
-        <v>5.328511129556507</v>
+        <v>37.666248805656</v>
       </c>
       <c r="S34">
-        <v>0.0008324334921042696</v>
+        <v>0.0007092006276002537</v>
       </c>
       <c r="T34">
-        <v>0.0008324334921042696</v>
+        <v>0.0005870968476577973</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N35">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O35">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P35">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q35">
-        <v>7.572087497011646</v>
+        <v>8.954896669780002</v>
       </c>
       <c r="R35">
-        <v>7.572087497011646</v>
+        <v>53.72938001868001</v>
       </c>
       <c r="S35">
-        <v>0.001182930669449705</v>
+        <v>0.001011646002404639</v>
       </c>
       <c r="T35">
-        <v>0.001182930669449705</v>
+        <v>0.000837469900396297</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N36">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O36">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P36">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q36">
-        <v>80.12939166685041</v>
+        <v>100.3764940757607</v>
       </c>
       <c r="R36">
-        <v>80.12939166685041</v>
+        <v>602.2589644545641</v>
       </c>
       <c r="S36">
-        <v>0.01251801632832072</v>
+        <v>0.01133965948594591</v>
       </c>
       <c r="T36">
-        <v>0.01251801632832072</v>
+        <v>0.009387298993570855</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N37">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O37">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P37">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q37">
-        <v>13.08419062242013</v>
+        <v>15.344246294945</v>
       </c>
       <c r="R37">
-        <v>13.08419062242013</v>
+        <v>61.37698517978001</v>
       </c>
       <c r="S37">
-        <v>0.002044045367713372</v>
+        <v>0.001733458910428126</v>
       </c>
       <c r="T37">
-        <v>0.002044045367713372</v>
+        <v>0.0009566717063786094</v>
       </c>
     </row>
   </sheetData>
